--- a/LDA/PFMatrix2.xlsx
+++ b/LDA/PFMatrix2.xlsx
@@ -429,46 +429,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.5885093167701864</v>
+        <v>0.3953965506187087</v>
       </c>
       <c r="C2">
-        <v>0.59277950310559</v>
+        <v>0.4367526339603128</v>
       </c>
       <c r="D2">
-        <v>0.594332298136646</v>
+        <v>0.4264971645790491</v>
       </c>
       <c r="E2">
-        <v>0.5749223602484472</v>
+        <v>0.4808429118773946</v>
       </c>
       <c r="F2">
-        <v>0.5714285714285714</v>
+        <v>0.4685857474636352</v>
       </c>
       <c r="G2">
-        <v>0.5722049689440993</v>
+        <v>0.4763754045307443</v>
       </c>
       <c r="H2">
-        <v>0.5593944099378882</v>
+        <v>0.4882937211777226</v>
       </c>
       <c r="I2">
-        <v>0.5586180124223602</v>
+        <v>0.4619427221730145</v>
       </c>
       <c r="J2">
-        <v>0.5710403726708074</v>
+        <v>0.4656461374154504</v>
       </c>
       <c r="K2">
-        <v>0.5593944099378882</v>
+        <v>0.4599988260844045</v>
       </c>
       <c r="L2">
-        <v>0.5742624223602484</v>
+        <v>0.4560331819880436</v>
       </c>
       <c r="M2">
-        <v>0.6816274232571826</v>
+        <v>0.4531468055532971</v>
       </c>
       <c r="N2">
-        <v>0.8834760859207238</v>
+        <v>0.4554063663693839</v>
       </c>
       <c r="O2">
-        <v>0.5742624223602484</v>
+        <v>0.4560331819880436</v>
       </c>
     </row>
   </sheetData>
